--- a/github-bitbucket/github-to-bitbucket.xlsx
+++ b/github-bitbucket/github-to-bitbucket.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\varsharma\Desktop\version control excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abharamagoudar\Desktop\api\github\SCM-Migration-DEMO\github-bitbucket\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FE57B3C-60F4-4F8D-9C1A-D5B170525EF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0643A19-BDF3-41ED-9A2A-0D24A868BF6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="17">
   <si>
     <t>sr</t>
   </si>
@@ -36,35 +36,53 @@
     <t>repo_name_to_import</t>
   </si>
   <si>
-    <t>varun160799</t>
-  </si>
-  <si>
-    <t>TES</t>
-  </si>
-  <si>
     <t>bitbucket_workspace_id</t>
   </si>
   <si>
     <t>bitbucket_project_key</t>
   </si>
   <si>
-    <t>dtan4</t>
-  </si>
-  <si>
-    <t>online-test</t>
-  </si>
-  <si>
-    <t>varun1699sharma</t>
-  </si>
-  <si>
-    <t>terraforming</t>
+    <t>code-migration</t>
+  </si>
+  <si>
+    <t>casaplotms </t>
+  </si>
+  <si>
+    <t>casa-build-utils </t>
+  </si>
+  <si>
+    <t>casashell</t>
+  </si>
+  <si>
+    <t>casaaddons </t>
+  </si>
+  <si>
+    <t>cartavis </t>
+  </si>
+  <si>
+    <t>carta-casacore</t>
+  </si>
+  <si>
+    <t>casa-asap </t>
+  </si>
+  <si>
+    <t>almatasks </t>
+  </si>
+  <si>
+    <t>app-n-pak </t>
+  </si>
+  <si>
+    <t>repo-migration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REP </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -80,16 +98,43 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF172B4D"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -97,15 +142,40 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -384,69 +454,188 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="22.33203125" customWidth="1"/>
-    <col min="4" max="4" width="25.21875" customWidth="1"/>
-    <col min="5" max="5" width="21.21875" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" customWidth="1"/>
+    <col min="4" max="4" width="25.28515625" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="D2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="D6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" t="s">
-        <v>4</v>
+      <c r="B10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/github-bitbucket/github-to-bitbucket.xlsx
+++ b/github-bitbucket/github-to-bitbucket.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abharamagoudar\Desktop\api\github\SCM-Migration-DEMO\github-bitbucket\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0643A19-BDF3-41ED-9A2A-0D24A868BF6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A527F1DA-9D67-4605-A380-D59993C9002E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,37 +45,37 @@
     <t>code-migration</t>
   </si>
   <si>
-    <t>casaplotms </t>
-  </si>
-  <si>
-    <t>casa-build-utils </t>
-  </si>
-  <si>
     <t>casashell</t>
   </si>
   <si>
-    <t>casaaddons </t>
-  </si>
-  <si>
-    <t>cartavis </t>
-  </si>
-  <si>
     <t>carta-casacore</t>
   </si>
   <si>
-    <t>casa-asap </t>
-  </si>
-  <si>
-    <t>almatasks </t>
-  </si>
-  <si>
-    <t>app-n-pak </t>
-  </si>
-  <si>
     <t>repo-migration</t>
   </si>
   <si>
-    <t xml:space="preserve">REP </t>
+    <t>casaplotms</t>
+  </si>
+  <si>
+    <t>casa-build-utils</t>
+  </si>
+  <si>
+    <t>casaaddons</t>
+  </si>
+  <si>
+    <t>cartavis</t>
+  </si>
+  <si>
+    <t>casa-asap</t>
+  </si>
+  <si>
+    <t>almatasks</t>
+  </si>
+  <si>
+    <t>app-n-pak</t>
+  </si>
+  <si>
+    <t>REP</t>
   </si>
 </sst>
 </file>
@@ -162,14 +162,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -457,7 +456,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C2" sqref="C2:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -493,10 +492,10 @@
         <v>5</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>15</v>
+        <v>9</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>16</v>
@@ -510,10 +509,10 @@
         <v>5</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>16</v>
@@ -526,11 +525,11 @@
       <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>15</v>
+      <c r="C4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>16</v>
@@ -544,10 +543,10 @@
         <v>5</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>16</v>
@@ -561,10 +560,10 @@
         <v>5</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>16</v>
@@ -578,10 +577,10 @@
         <v>5</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>15</v>
+        <v>7</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>16</v>
@@ -595,10 +594,10 @@
         <v>5</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>16</v>
@@ -612,10 +611,10 @@
         <v>5</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>16</v>
@@ -629,10 +628,10 @@
         <v>5</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="4" t="s">
         <v>15</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>16</v>

--- a/github-bitbucket/github-to-bitbucket.xlsx
+++ b/github-bitbucket/github-to-bitbucket.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abharamagoudar\Desktop\api\github\SCM-Migration-DEMO\github-bitbucket\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A527F1DA-9D67-4605-A380-D59993C9002E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6407C632-581A-4EE0-9E73-947ED62DFDEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -51,9 +51,6 @@
     <t>carta-casacore</t>
   </si>
   <si>
-    <t>repo-migration</t>
-  </si>
-  <si>
     <t>casaplotms</t>
   </si>
   <si>
@@ -76,13 +73,16 @@
   </si>
   <si>
     <t>REP</t>
+  </si>
+  <si>
+    <t>anilgoudasb06</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,6 +115,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF172B4D"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -456,7 +462,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C10"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -492,13 +498,13 @@
         <v>5</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -509,13 +515,13 @@
         <v>5</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -529,10 +535,10 @@
         <v>6</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -543,13 +549,13 @@
         <v>5</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -560,13 +566,13 @@
         <v>5</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -580,10 +586,10 @@
         <v>7</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -594,13 +600,13 @@
         <v>5</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -611,13 +617,13 @@
         <v>5</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -628,16 +634,17 @@
         <v>5</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
